--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialCostList.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportRawMaterialCostList.xlsx
@@ -11,7 +11,16 @@
     <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Coûts" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Coûts!$B$3:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -255,6 +264,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -264,19 +281,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0102040816326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -340,6 +357,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:H3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -347,6 +365,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -359,13 +378,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,6 +430,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:E3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -418,5 +438,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>